--- a/downloads/币.xlsx
+++ b/downloads/币.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqiu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LQ/Desktop/LQ_workspace/git_demo/LiqCode.github.io/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-9140" yWindow="-16720" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="聚币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">聚币!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">时代!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">时代!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -545,6 +545,106 @@
     <rPh sb="2" eb="3">
       <t>bi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23号价格</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周变化</t>
+    <rPh sb="0" eb="1">
+      <t>yi'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前市值</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特时代</t>
+    <rPh sb="0" eb="1">
+      <t>bi'te</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+元宝网</t>
+    <rPh sb="0" eb="1">
+      <t>shi'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+聚币</t>
+    <rPh sb="0" eb="1">
+      <t>shi'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ju'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+Bit</t>
+    <rPh sb="0" eb="1">
+      <t>shi'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无记录</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+聚币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+Bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代+聚币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特时代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +655,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -607,17 +707,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,7 +1050,7 @@
         <v>0.71</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D26" si="0">B2*C2</f>
         <v>0</v>
       </c>
     </row>
@@ -953,7 +1065,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
       <c r="F3" t="s">
@@ -971,7 +1083,7 @@
         <v>42.99</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>4299000</v>
       </c>
     </row>
@@ -986,7 +1098,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="F5" t="s">
@@ -1004,7 +1116,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>8600000</v>
       </c>
       <c r="E6" t="s">
@@ -1028,7 +1140,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>10500000.000000002</v>
       </c>
       <c r="E7" t="s">
@@ -1049,7 +1161,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="D8" s="1">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>12204000</v>
       </c>
       <c r="F8" t="s">
@@ -1070,7 +1182,7 @@
         <v>0.73</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>15330000</v>
       </c>
       <c r="E9" t="s">
@@ -1091,7 +1203,7 @@
         <v>0.08</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
       <c r="F10" t="s">
@@ -1109,7 +1221,7 @@
         <v>0.110001</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>24200220</v>
       </c>
       <c r="F11" t="s">
@@ -1127,7 +1239,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>27300080</v>
       </c>
       <c r="F12" t="s">
@@ -1145,7 +1257,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>31680000</v>
       </c>
     </row>
@@ -1160,7 +1272,7 @@
         <v>0.313</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>37560000</v>
       </c>
       <c r="F14" t="s">
@@ -1181,7 +1293,7 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>43800000</v>
       </c>
       <c r="F15" t="s">
@@ -1202,7 +1314,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>44688000</v>
       </c>
       <c r="F16" t="s">
@@ -1223,7 +1335,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*C17</f>
+        <f t="shared" si="0"/>
         <v>45500000</v>
       </c>
       <c r="F17" t="s">
@@ -1244,7 +1356,7 @@
         <v>0.23</v>
       </c>
       <c r="D18" s="1">
-        <f>B18*C18</f>
+        <f t="shared" si="0"/>
         <v>57500000</v>
       </c>
       <c r="G18">
@@ -1262,7 +1374,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="D19" s="1">
-        <f>B19*C19</f>
+        <f t="shared" si="0"/>
         <v>47200000</v>
       </c>
       <c r="E19" t="s">
@@ -1283,7 +1395,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="D20" s="1">
-        <f>B20*C20</f>
+        <f t="shared" si="0"/>
         <v>72600000</v>
       </c>
       <c r="F20" t="s">
@@ -1304,7 +1416,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D21" s="1">
-        <f>B21*C21</f>
+        <f t="shared" si="0"/>
         <v>153944064</v>
       </c>
     </row>
@@ -1319,7 +1431,7 @@
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="D22" s="1">
-        <f>B22*C22</f>
+        <f t="shared" si="0"/>
         <v>261834000.00000003</v>
       </c>
       <c r="G22">
@@ -1337,7 +1449,7 @@
         <v>3.3210000000000002</v>
       </c>
       <c r="D23" s="1">
-        <f>B23*C23</f>
+        <f t="shared" si="0"/>
         <v>166050000</v>
       </c>
       <c r="E23" t="s">
@@ -1358,7 +1470,7 @@
         <v>1.916E-2</v>
       </c>
       <c r="D24" s="1">
-        <f>B24*C24</f>
+        <f t="shared" si="0"/>
         <v>258660000</v>
       </c>
     </row>
@@ -1373,7 +1485,7 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="D25" s="1">
-        <f>B25*C25</f>
+        <f t="shared" si="0"/>
         <v>391000000</v>
       </c>
     </row>
@@ -1388,7 +1500,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D26" s="1">
-        <f>B26*C26</f>
+        <f t="shared" si="0"/>
         <v>1125000</v>
       </c>
       <c r="G26">
@@ -1430,202 +1542,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3">
-        <v>150000000</v>
+        <v>28000000</v>
       </c>
       <c r="C2">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*C2</f>
-        <v>27720000</v>
-      </c>
-      <c r="G2">
-        <v>2016</v>
-      </c>
-      <c r="H2">
-        <v>132832801.14</v>
+        <v>2.69</v>
+      </c>
+      <c r="D2">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="7">
+        <f>(D2-C2)/C2</f>
+        <v>-0.40520446096654272</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2*D2</f>
+        <v>44800000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
       </c>
       <c r="I2">
-        <f>H2/B2</f>
-        <v>0.88555200759999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+      <c r="J2">
+        <v>2112253.37</v>
+      </c>
+      <c r="K2">
+        <f>J2/B2</f>
+        <v>7.5437620357142868E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4">
-        <v>400000000</v>
+        <v>73</v>
+      </c>
+      <c r="B3" s="3">
+        <v>21000000</v>
       </c>
       <c r="C3">
-        <v>0.215</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>86000000</v>
-      </c>
-      <c r="G3">
+        <v>15840.9</v>
+      </c>
+      <c r="D3">
+        <v>14820.9</v>
+      </c>
+      <c r="E3" s="7">
+        <f>(D3-C3)/C3</f>
+        <v>-6.4390280855254431E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3*D3</f>
+        <v>311238900000</v>
+      </c>
+      <c r="I3">
+        <v>2009</v>
+      </c>
+      <c r="J3">
+        <v>9755.2199999999993</v>
+      </c>
+      <c r="K3">
+        <f>J3/B3</f>
+        <v>4.6453428571428568E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3">
+        <v>48160000</v>
+      </c>
+      <c r="C4">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <f>(D4-C4)/C4</f>
+        <v>-0.32286212914485157</v>
+      </c>
+      <c r="F4" s="1">
+        <f>B4*D4</f>
+        <v>18686080</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4">
+        <v>2013</v>
+      </c>
+      <c r="J4">
+        <v>15371258.35</v>
+      </c>
+      <c r="K4">
+        <f>J4/B4</f>
+        <v>0.3191706468023256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18900000</v>
+      </c>
+      <c r="C5">
+        <v>959</v>
+      </c>
+      <c r="D5">
+        <v>850</v>
+      </c>
+      <c r="E5" s="7">
+        <f>(D5-C5)/C5</f>
+        <v>-0.11366006256517205</v>
+      </c>
+      <c r="F5" s="1">
+        <f>B5*D5</f>
+        <v>16065000000</v>
+      </c>
+      <c r="I5">
         <v>2014</v>
       </c>
-      <c r="H3">
-        <v>294714491.72000003</v>
-      </c>
-      <c r="I3">
-        <f>H3/B3</f>
-        <v>0.73678622930000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42000000</v>
-      </c>
-      <c r="C4">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>36204000</v>
-      </c>
-      <c r="G4">
+      <c r="J5">
+        <v>18266.98</v>
+      </c>
+      <c r="K5">
+        <f>J5/B5</f>
+        <v>9.665068783068783E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3">
+        <v>84000000</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>157</v>
+      </c>
+      <c r="E6" s="7">
+        <f>(D6-C6)/C6</f>
+        <v>-0.12777777777777777</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B6*D6</f>
+        <v>13188000000</v>
+      </c>
+      <c r="I6">
+        <v>2011</v>
+      </c>
+      <c r="J6">
+        <v>465487.32</v>
+      </c>
+      <c r="K6">
+        <f>J6/B6</f>
+        <v>5.5415157142857142E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="C7">
+        <v>51.2</v>
+      </c>
+      <c r="D7">
+        <v>43.8</v>
+      </c>
+      <c r="E7" s="7">
+        <f>(D7-C7)/C7</f>
+        <v>-0.14453125000000011</v>
+      </c>
+      <c r="F7" s="1">
+        <f>B7*D7</f>
+        <v>131399999.99999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7">
         <v>2013</v>
       </c>
-      <c r="H4">
-        <v>23708838.550000001</v>
-      </c>
-      <c r="I4">
-        <f>H4/B4</f>
-        <v>0.56449615595238101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="C5">
-        <v>1.27</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5*C5</f>
-        <v>25400000</v>
-      </c>
-      <c r="G5">
-        <v>2014</v>
-      </c>
-      <c r="H5">
-        <v>10714626.27</v>
-      </c>
-      <c r="I5">
-        <f>H5/B5</f>
-        <v>0.53573131350000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>13500000000</v>
-      </c>
-      <c r="C6">
-        <v>2.019E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <f>B6*C6</f>
-        <v>272565000</v>
-      </c>
-      <c r="G6">
-        <v>2013</v>
-      </c>
-      <c r="H6">
-        <v>7199234504.9099998</v>
-      </c>
-      <c r="I6">
-        <f>H6/B6</f>
-        <v>0.53327662999333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3">
-        <v>21000000</v>
-      </c>
-      <c r="C7">
-        <v>1.19</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7*C7</f>
-        <v>24990000</v>
-      </c>
-      <c r="G7">
-        <v>2013</v>
-      </c>
-      <c r="H7">
-        <v>7029898.8200000003</v>
-      </c>
-      <c r="I7">
-        <f>H7/B7</f>
-        <v>0.3347570866666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>230317.23</v>
+      </c>
+      <c r="K7">
+        <f>J7/B7</f>
+        <v>7.6772409999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1635,548 +1809,743 @@
       <c r="C8">
         <v>0.67800000000000005</v>
       </c>
-      <c r="D8" s="1">
-        <f>B8*C8</f>
-        <v>135600000</v>
-      </c>
-      <c r="G8">
+      <c r="D8">
+        <v>0.621</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(D8-C8)/C8</f>
+        <v>-8.4070796460177066E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f>B8*D8</f>
+        <v>124200000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
         <v>2017</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>66861422.960000001</v>
       </c>
-      <c r="I8">
-        <f>H8/B8</f>
+      <c r="K8">
+        <f>J8/B8</f>
         <v>0.33430711480000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3">
-        <v>48160000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D9" s="1">
-        <f>B9*C9</f>
-        <v>27595679.999999996</v>
-      </c>
-      <c r="G9">
+        <v>3.32</v>
+      </c>
+      <c r="D9">
+        <v>2.68</v>
+      </c>
+      <c r="E9" s="7">
+        <f>(D9-C9)/C9</f>
+        <v>-0.19277108433734932</v>
+      </c>
+      <c r="F9" s="1">
+        <f>B9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>2013</v>
       </c>
-      <c r="H9">
-        <v>15371258.35</v>
-      </c>
-      <c r="I9">
-        <f>H9/B9</f>
-        <v>0.3191706468023256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>9888321.5700000003</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="C10">
+        <v>1.86</v>
+      </c>
+      <c r="D10">
+        <v>1.4724999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <f>(D10-C10)/C10</f>
+        <v>-0.20833333333333343</v>
+      </c>
+      <c r="F10" s="1">
+        <f>B10*D10</f>
+        <v>13252500000</v>
+      </c>
+      <c r="I10">
+        <v>2015</v>
+      </c>
+      <c r="J10">
+        <v>152984100.62</v>
+      </c>
+      <c r="K10">
+        <f>J10/B10</f>
+        <v>1.6998233402222222E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="C11">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f>(D11-C11)/C11</f>
+        <v>-0.22362869198312235</v>
+      </c>
+      <c r="F11" s="1">
+        <f>B11*D11</f>
+        <v>1840000000</v>
+      </c>
+      <c r="I11">
+        <v>2013</v>
+      </c>
+      <c r="J11">
+        <v>13271311553.440001</v>
+      </c>
+      <c r="K11">
+        <f>J11/B11</f>
+        <v>0.13271311553440002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B12" s="6">
         <v>76000000</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>1.7649999999999999</v>
       </c>
-      <c r="D10" s="1">
-        <f>B10*C10</f>
-        <v>134140000</v>
-      </c>
-      <c r="G10">
+      <c r="D12">
+        <v>1.34</v>
+      </c>
+      <c r="E12" s="7">
+        <f>(D12-C12)/C12</f>
+        <v>-0.2407932011331444</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B12*D12</f>
+        <v>101840000</v>
+      </c>
+      <c r="I12">
         <v>2014</v>
       </c>
-      <c r="H10">
+      <c r="J12">
         <v>20587603.440000001</v>
       </c>
-      <c r="I10">
-        <f>H10/B10</f>
+      <c r="K12">
+        <f>J12/B12</f>
         <v>0.27088951894736846</v>
       </c>
-      <c r="J10" s="7">
+      <c r="L12" s="7">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="3">
         <v>85000000</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>0.72799999999999998</v>
       </c>
-      <c r="D11" s="1">
-        <f>B11*C11</f>
-        <v>61880000</v>
-      </c>
-      <c r="G11">
+      <c r="D13">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E13" s="7">
+        <f>(D13-C13)/C13</f>
+        <v>-0.24999999999999992</v>
+      </c>
+      <c r="F13" s="1">
+        <f>B13*D13</f>
+        <v>46410000</v>
+      </c>
+      <c r="I13">
         <v>2014</v>
       </c>
-      <c r="H11">
+      <c r="J13">
         <v>14563178.960000001</v>
       </c>
-      <c r="I11">
-        <f>H11/B11</f>
+      <c r="K13">
+        <f>J13/B13</f>
         <v>0.1713315171764706</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B14" s="3">
         <v>938000000</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>0.1583</v>
       </c>
-      <c r="D12" s="1">
-        <f>B12*C12</f>
-        <v>148485400</v>
-      </c>
-      <c r="H12">
+      <c r="D14">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="E14" s="7">
+        <f>(D14-C14)/C14</f>
+        <v>-0.26405559065066325</v>
+      </c>
+      <c r="F14" s="1">
+        <f>B14*D14</f>
+        <v>109277000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14">
         <v>160203415.28999999</v>
       </c>
-      <c r="I12">
-        <f>H12/B12</f>
+      <c r="K14">
+        <f>J14/B14</f>
         <v>0.17079255361407247</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="C15">
+        <v>15.38</v>
+      </c>
+      <c r="D15">
+        <v>10.78</v>
+      </c>
+      <c r="E15" s="7">
+        <f>(D15-C15)/C15</f>
+        <v>-0.2990897269180755</v>
+      </c>
+      <c r="F15" s="1">
+        <f>B15*D15</f>
+        <v>269500000</v>
+      </c>
+      <c r="I15">
+        <v>2012</v>
+      </c>
+      <c r="J15">
+        <v>888174.36</v>
+      </c>
+      <c r="K15">
+        <f>J15/B15</f>
+        <v>3.5526974400000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="C16">
+        <v>57.09</v>
+      </c>
+      <c r="D16">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="E16" s="7">
+        <f>(D16-C16)/C16</f>
+        <v>-0.30530740935365225</v>
+      </c>
+      <c r="F16" s="1">
+        <f>B16*D16</f>
+        <v>832859999.99999988</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16">
+        <v>2016</v>
+      </c>
+      <c r="J16">
+        <v>1132149.23</v>
+      </c>
+      <c r="K16">
+        <f>J16/B16</f>
+        <v>5.3911868095238097E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="C17">
+        <v>1.19</v>
+      </c>
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="7">
+        <f>(D17-C17)/C17</f>
+        <v>-0.32773109243697474</v>
+      </c>
+      <c r="F17" s="1">
+        <f>B17*D17</f>
+        <v>16800000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>2013</v>
+      </c>
+      <c r="J17">
+        <v>7029898.8200000003</v>
+      </c>
+      <c r="K17">
+        <f>J17/B17</f>
+        <v>0.3347570866666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3700000000</v>
+      </c>
+      <c r="C18">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="D18">
+        <v>0.4279</v>
+      </c>
+      <c r="E18" s="7">
+        <f>(D18-C18)/C18</f>
+        <v>-0.32358520392032886</v>
+      </c>
+      <c r="F18" s="1">
+        <f>B18*D18</f>
+        <v>1583230000</v>
+      </c>
+      <c r="I18">
+        <v>2014</v>
+      </c>
+      <c r="J18">
+        <v>255106669.50999999</v>
+      </c>
+      <c r="K18">
+        <f>J18/B18</f>
+        <v>6.8947748516216212E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="C19">
+        <v>1.27</v>
+      </c>
+      <c r="D19">
+        <v>1.03</v>
+      </c>
+      <c r="E19" s="7">
+        <f>(D19-C19)/C19</f>
+        <v>-0.1889763779527559</v>
+      </c>
+      <c r="F19" s="1">
+        <f>B19*D19</f>
+        <v>20600000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19">
+        <v>2014</v>
+      </c>
+      <c r="J19">
+        <v>10714626.27</v>
+      </c>
+      <c r="K19">
+        <f>J19/B19</f>
+        <v>0.53573131350000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.82</v>
+      </c>
+      <c r="D20">
+        <v>1.22</v>
+      </c>
+      <c r="E20" s="7">
+        <f>(D20-C20)/C20</f>
+        <v>-0.32967032967032972</v>
+      </c>
+      <c r="F20" s="1">
+        <f>B20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20">
+        <v>2013</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3">
         <v>100000000000</v>
       </c>
-      <c r="C13">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <f>B13*C13</f>
-        <v>2370000000</v>
-      </c>
-      <c r="G13">
+      <c r="C21">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="D21">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <f>(D21-C21)/C21</f>
+        <v>-0.33433347621088733</v>
+      </c>
+      <c r="F21" s="1">
+        <f>B21*D21</f>
+        <v>155300000000</v>
+      </c>
+      <c r="I21">
+        <v>2011</v>
+      </c>
+      <c r="J21">
+        <v>70138808.329999998</v>
+      </c>
+      <c r="K21">
+        <f>J21/B21</f>
+        <v>7.0138808329999998E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13500000000</v>
+      </c>
+      <c r="C22">
+        <v>2.019E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <f>(D22-C22)/C22</f>
+        <v>-0.33927686973749382</v>
+      </c>
+      <c r="F22" s="1">
+        <f>B22*D22</f>
+        <v>180090000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22">
         <v>2013</v>
       </c>
-      <c r="H13">
-        <v>13271311553.440001</v>
-      </c>
-      <c r="I13">
-        <f>H13/B13</f>
-        <v>0.13271311553440002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1000000000</v>
-      </c>
-      <c r="C14">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D14" s="1">
-        <f>B14*C14</f>
-        <v>351000000</v>
-      </c>
-      <c r="G14">
-        <v>2013</v>
-      </c>
-      <c r="H14">
-        <v>85473859.879999995</v>
-      </c>
-      <c r="I14">
-        <f>H14/B14</f>
-        <v>8.5473859879999989E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="C15">
-        <v>51.2</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15*C15</f>
-        <v>153600000</v>
-      </c>
-      <c r="G15">
-        <v>2013</v>
-      </c>
-      <c r="H15">
-        <v>230317.23</v>
-      </c>
-      <c r="I15">
-        <f>H15/B15</f>
-        <v>7.6772409999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3">
-        <v>28000000</v>
-      </c>
-      <c r="C16">
-        <v>2.69</v>
-      </c>
-      <c r="D16" s="1">
-        <f>B16*C16</f>
-        <v>75320000</v>
-      </c>
-      <c r="G16">
-        <v>2013</v>
-      </c>
-      <c r="H16">
-        <v>2112253.37</v>
-      </c>
-      <c r="I16">
-        <f>H16/B16</f>
-        <v>7.5437620357142868E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3700000000</v>
-      </c>
-      <c r="C17">
-        <v>0.63260000000000005</v>
-      </c>
-      <c r="D17" s="1">
-        <f>B17*C17</f>
-        <v>2340620000</v>
-      </c>
-      <c r="G17">
-        <v>2014</v>
-      </c>
-      <c r="H17">
-        <v>255106669.50999999</v>
-      </c>
-      <c r="I17">
-        <f>H17/B17</f>
-        <v>6.8947748516216212E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J22">
+        <v>7199234504.9099998</v>
+      </c>
+      <c r="K22">
+        <f>J22/B22</f>
+        <v>0.53327662999333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1000000000</v>
-      </c>
-      <c r="C18">
-        <v>0.64</v>
-      </c>
-      <c r="D18" s="1">
-        <f>B18*C18</f>
-        <v>640000000</v>
-      </c>
-      <c r="G18">
-        <v>2013</v>
-      </c>
-      <c r="H18">
-        <v>55787031.579999998</v>
-      </c>
-      <c r="I18">
-        <f>H18/B18</f>
-        <v>5.578703158E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3">
-        <v>21000000</v>
-      </c>
-      <c r="C19">
-        <v>57.09</v>
-      </c>
-      <c r="D19" s="1">
-        <f>B19*C19</f>
-        <v>1198890000</v>
-      </c>
-      <c r="G19">
-        <v>2016</v>
-      </c>
-      <c r="H19">
-        <v>1132149.23</v>
-      </c>
-      <c r="I19">
-        <f>H19/B19</f>
-        <v>5.3911868095238097E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="6">
-        <v>25000000</v>
-      </c>
-      <c r="C20">
-        <v>15.38</v>
-      </c>
-      <c r="D20" s="1">
-        <f>B20*C20</f>
-        <v>384500000</v>
-      </c>
-      <c r="G20">
-        <v>2012</v>
-      </c>
-      <c r="H20">
-        <v>888174.36</v>
-      </c>
-      <c r="I20">
-        <f>H20/B20</f>
-        <v>3.5526974400000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9000000000</v>
-      </c>
-      <c r="C21">
-        <v>1.86</v>
-      </c>
-      <c r="D21" s="1">
-        <f>B21*C21</f>
-        <v>16740000000</v>
-      </c>
-      <c r="G21">
-        <v>2015</v>
-      </c>
-      <c r="H21">
-        <v>152984100.62</v>
-      </c>
-      <c r="I21">
-        <f>H21/B21</f>
-        <v>1.6998233402222222E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3">
-        <v>84000000</v>
-      </c>
-      <c r="C22">
-        <v>180</v>
-      </c>
-      <c r="D22" s="1">
-        <f>B22*C22</f>
-        <v>15120000000</v>
-      </c>
-      <c r="G22">
-        <v>2011</v>
-      </c>
-      <c r="H22">
-        <v>465487.32</v>
-      </c>
-      <c r="I22">
-        <f>H22/B22</f>
-        <v>5.5415157142857142E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>1000000000</v>
       </c>
       <c r="C23">
+        <v>0.64</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="7">
+        <f>(D23-C23)/C23</f>
+        <v>-0.375</v>
+      </c>
+      <c r="F23" s="1">
+        <f>B23*D23</f>
+        <v>400000000</v>
+      </c>
+      <c r="I23">
+        <v>2013</v>
+      </c>
+      <c r="J23">
+        <v>55787031.579999998</v>
+      </c>
+      <c r="K23">
+        <f>J23/B23</f>
+        <v>5.578703158E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="C24">
         <v>8.4600000000000009</v>
       </c>
-      <c r="D23" s="1">
-        <f>B23*C23</f>
-        <v>8460000000.000001</v>
-      </c>
-      <c r="G23">
+      <c r="D24">
+        <v>5.22</v>
+      </c>
+      <c r="E24" s="7">
+        <f>(D24-C24)/C24</f>
+        <v>-0.38297872340425543</v>
+      </c>
+      <c r="F24" s="1">
+        <f>B24*D24</f>
+        <v>5220000000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
         <v>2013</v>
       </c>
-      <c r="H23">
+      <c r="J24">
         <v>4407153.53</v>
       </c>
-      <c r="I23">
-        <f>H23/B23</f>
+      <c r="K24">
+        <f>J24/B24</f>
         <v>4.4071535300000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3">
+        <v>42000000</v>
+      </c>
+      <c r="C25">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E25" s="7">
+        <f>(D25-C25)/C25</f>
+        <v>-0.43387470997679817</v>
+      </c>
+      <c r="F25" s="1">
+        <f>B25*D25</f>
+        <v>20496000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25">
+        <v>2013</v>
+      </c>
+      <c r="J25">
+        <v>23708838.550000001</v>
+      </c>
+      <c r="K25">
+        <f>J25/B25</f>
+        <v>0.56449615595238101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="C26">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <f>(D26-C26)/C26</f>
+        <v>-0.41025641025641024</v>
+      </c>
+      <c r="F26" s="1">
+        <f>B26*D26</f>
+        <v>207000000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26">
+        <v>2013</v>
+      </c>
+      <c r="J26">
+        <v>85473859.879999995</v>
+      </c>
+      <c r="K26">
+        <f>J26/B26</f>
+        <v>8.5473859879999989E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B27" s="6">
         <v>100000000000</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>0.38479999999999998</v>
       </c>
-      <c r="D24" s="1">
-        <f>B24*C24</f>
-        <v>38480000000</v>
-      </c>
-      <c r="G24">
+      <c r="D27">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <f>(D27-C27)/C27</f>
+        <v>-0.42645530145530142</v>
+      </c>
+      <c r="F27" s="1">
+        <f>B27*D27</f>
+        <v>22070000000</v>
+      </c>
+      <c r="I27">
         <v>2014</v>
       </c>
-      <c r="H24">
+      <c r="J27">
         <v>355791832.49000001</v>
       </c>
-      <c r="I24">
-        <f>H24/B24</f>
+      <c r="K27">
+        <f>J27/B27</f>
         <v>3.5579183248999999E-3</v>
       </c>
-      <c r="J24" s="9">
+      <c r="L27" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3">
-        <v>18900000</v>
-      </c>
-      <c r="C25">
-        <v>959</v>
-      </c>
-      <c r="D25" s="1">
-        <f>B25*C25</f>
-        <v>18125100000</v>
-      </c>
-      <c r="G25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4">
+        <v>400000000</v>
+      </c>
+      <c r="C28">
+        <v>0.215</v>
+      </c>
+      <c r="D28">
+        <v>0.105</v>
+      </c>
+      <c r="E28" s="7">
+        <f>(D28-C28)/C28</f>
+        <v>-0.51162790697674421</v>
+      </c>
+      <c r="F28" s="1">
+        <f>B28*D28</f>
+        <v>42000000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
         <v>2014</v>
       </c>
-      <c r="H25">
-        <v>18266.98</v>
-      </c>
-      <c r="I25">
-        <f>H25/B25</f>
-        <v>9.665068783068783E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="3">
-        <v>100000000000</v>
-      </c>
-      <c r="C26">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="D26" s="1">
-        <f>B26*C26</f>
-        <v>233300000000.00003</v>
-      </c>
-      <c r="G26">
-        <v>2011</v>
-      </c>
-      <c r="H26">
-        <v>70138808.329999998</v>
-      </c>
-      <c r="I26">
-        <f>H26/B26</f>
-        <v>7.0138808329999998E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3">
-        <v>21000000</v>
-      </c>
-      <c r="C27">
-        <v>15840.9</v>
-      </c>
-      <c r="D27" s="1">
-        <f>B27*C27</f>
-        <v>332658900000</v>
-      </c>
-      <c r="G27">
-        <v>2009</v>
-      </c>
-      <c r="H27">
-        <v>9755.2199999999993</v>
-      </c>
-      <c r="I27">
-        <f>H27/B27</f>
-        <v>4.6453428571428568E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1.82</v>
-      </c>
-      <c r="D28" s="1">
-        <f>B28*C28</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>2013</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>294714491.72000003</v>
+      </c>
+      <c r="K28">
+        <f>J28/B28</f>
+        <v>0.73678622930000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>150000000</v>
       </c>
       <c r="C29">
-        <v>3.32</v>
-      </c>
-      <c r="D29" s="1">
-        <f>B29*C29</f>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2013</v>
-      </c>
-      <c r="H29">
-        <v>9888321.5700000003</v>
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E29" s="7">
+        <f>(D29-C29)/C29</f>
+        <v>0.43398268398268414</v>
+      </c>
+      <c r="F29" s="1">
+        <f>B29*D29</f>
+        <v>39750000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="J29">
+        <v>132832801.14</v>
+      </c>
+      <c r="K29">
+        <f>J29/B29</f>
+        <v>0.88555200759999997</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
+  <autoFilter ref="A1:N29">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="比特时代"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:L29">
-      <sortCondition descending="1" ref="I1:I29"/>
+      <sortCondition ref="K1:K29"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/downloads/币.xlsx
+++ b/downloads/币.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9140" yWindow="-16720" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-1760" yWindow="-19160" windowWidth="30680" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="聚币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">聚币!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">时代!$A$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">时代!$A$1:$P$29</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -645,6 +645,10 @@
   </si>
   <si>
     <t>比特时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月30号价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1014,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1091,7 @@
         <v>4299000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1542,11 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,12 +1558,14 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1571,235 +1576,292 @@
         <v>76</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3">
-        <v>28000000</v>
+        <v>150000000</v>
       </c>
       <c r="C2">
-        <v>2.69</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="D2">
-        <v>1.6</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E2" s="7">
-        <f>(D2-C2)/C2</f>
-        <v>-0.40520446096654272</v>
-      </c>
-      <c r="F2" s="1">
-        <f>B2*D2</f>
-        <v>44800000</v>
-      </c>
-      <c r="G2" t="s">
+        <f t="shared" ref="E2:E29" si="0">(D2-C2)/C2</f>
+        <v>0.43398268398268414</v>
+      </c>
+      <c r="F2">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G29" si="1">(F2-D2)/D2</f>
+        <v>0.36679245283018869</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H29" si="2">B2*F2</f>
+        <v>54330000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2">
+        <v>2016</v>
+      </c>
+      <c r="L2">
+        <v>132832801.14</v>
+      </c>
+      <c r="M2">
+        <f>L2/B2</f>
+        <v>0.88555200759999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4">
+        <v>400000000</v>
+      </c>
+      <c r="C3">
+        <v>0.215</v>
+      </c>
+      <c r="D3">
+        <v>0.105</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.51162790697674421</v>
+      </c>
+      <c r="F3">
+        <v>0.215</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>86000000</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I2">
+      <c r="K3">
+        <v>2014</v>
+      </c>
+      <c r="L3">
+        <v>294714491.72000003</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M2:M27" si="3">L3/B3</f>
+        <v>0.73678622930000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42000000</v>
+      </c>
+      <c r="C4">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.43387470997679817</v>
+      </c>
+      <c r="F4">
+        <v>0.72</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47540983606557374</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>30240000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4">
         <v>2013</v>
       </c>
-      <c r="J2">
-        <v>2112253.37</v>
-      </c>
-      <c r="K2">
-        <f>J2/B2</f>
-        <v>7.5437620357142868E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="L4">
+        <v>23708838.550000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.56449615595238101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="C5">
+        <v>1.27</v>
+      </c>
+      <c r="D5">
+        <v>1.03</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.1889763779527559</v>
+      </c>
+      <c r="F5">
+        <v>1.93</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87378640776699024</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>38600000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5">
+        <v>2014</v>
+      </c>
+      <c r="L5">
+        <v>10714626.27</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.53573131350000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>13500000000</v>
+      </c>
+      <c r="C6">
+        <v>2.019E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.33927686973749382</v>
+      </c>
+      <c r="F6">
+        <v>1.8780000000000002E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40779610194902566</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>253530000.00000003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6">
+        <v>2013</v>
+      </c>
+      <c r="L6">
+        <v>7199234504.9099998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.53327662999333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3">
         <v>21000000</v>
       </c>
-      <c r="C3">
-        <v>15840.9</v>
-      </c>
-      <c r="D3">
-        <v>14820.9</v>
-      </c>
-      <c r="E3" s="7">
-        <f>(D3-C3)/C3</f>
-        <v>-6.4390280855254431E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <f>B3*D3</f>
-        <v>311238900000</v>
-      </c>
-      <c r="I3">
-        <v>2009</v>
-      </c>
-      <c r="J3">
-        <v>9755.2199999999993</v>
-      </c>
-      <c r="K3">
-        <f>J3/B3</f>
-        <v>4.6453428571428568E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3">
-        <v>48160000</v>
-      </c>
-      <c r="C4">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <f>(D4-C4)/C4</f>
-        <v>-0.32286212914485157</v>
-      </c>
-      <c r="F4" s="1">
-        <f>B4*D4</f>
-        <v>18686080</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C7">
+        <v>1.19</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.32773109243697474</v>
+      </c>
+      <c r="F7">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>24885000</v>
+      </c>
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="I4">
+      <c r="K7">
         <v>2013</v>
       </c>
-      <c r="J4">
-        <v>15371258.35</v>
-      </c>
-      <c r="K4">
-        <f>J4/B4</f>
-        <v>0.3191706468023256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3">
-        <v>18900000</v>
-      </c>
-      <c r="C5">
-        <v>959</v>
-      </c>
-      <c r="D5">
-        <v>850</v>
-      </c>
-      <c r="E5" s="7">
-        <f>(D5-C5)/C5</f>
-        <v>-0.11366006256517205</v>
-      </c>
-      <c r="F5" s="1">
-        <f>B5*D5</f>
-        <v>16065000000</v>
-      </c>
-      <c r="I5">
-        <v>2014</v>
-      </c>
-      <c r="J5">
-        <v>18266.98</v>
-      </c>
-      <c r="K5">
-        <f>J5/B5</f>
-        <v>9.665068783068783E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="3">
-        <v>84000000</v>
-      </c>
-      <c r="C6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>157</v>
-      </c>
-      <c r="E6" s="7">
-        <f>(D6-C6)/C6</f>
-        <v>-0.12777777777777777</v>
-      </c>
-      <c r="F6" s="1">
-        <f>B6*D6</f>
-        <v>13188000000</v>
-      </c>
-      <c r="I6">
-        <v>2011</v>
-      </c>
-      <c r="J6">
-        <v>465487.32</v>
-      </c>
-      <c r="K6">
-        <f>J6/B6</f>
-        <v>5.5415157142857142E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="C7">
-        <v>51.2</v>
-      </c>
-      <c r="D7">
-        <v>43.8</v>
-      </c>
-      <c r="E7" s="7">
-        <f>(D7-C7)/C7</f>
-        <v>-0.14453125000000011</v>
-      </c>
-      <c r="F7" s="1">
-        <f>B7*D7</f>
-        <v>131399999.99999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7">
-        <v>2013</v>
-      </c>
-      <c r="J7">
-        <v>230317.23</v>
-      </c>
-      <c r="K7">
-        <f>J7/B7</f>
-        <v>7.6772409999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>7029898.8200000003</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.3347570866666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1813,739 +1875,879 @@
         <v>0.621</v>
       </c>
       <c r="E8" s="7">
-        <f>(D8-C8)/C8</f>
+        <f t="shared" si="0"/>
         <v>-8.4070796460177066E-2</v>
       </c>
-      <c r="F8" s="1">
-        <f>B8*D8</f>
-        <v>124200000</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29307568438003229</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>160600000</v>
+      </c>
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2017</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>66861422.960000001</v>
       </c>
-      <c r="K8">
-        <f>J8/B8</f>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>0.33430711480000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>48160000</v>
       </c>
       <c r="C9">
-        <v>3.32</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D9">
-        <v>2.68</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E9" s="7">
-        <f>(D9-C9)/C9</f>
-        <v>-0.19277108433734932</v>
-      </c>
-      <c r="F9" s="1">
-        <f>B9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.32286212914485157</v>
+      </c>
+      <c r="F9">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.39948453608247431</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>26150880</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9">
         <v>2013</v>
       </c>
-      <c r="J9">
-        <v>9888321.5700000003</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>15371258.35</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.3191706468023256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="6">
+        <v>76000000</v>
+      </c>
+      <c r="C10">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.34</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.2407932011331444</v>
+      </c>
+      <c r="F10">
+        <v>3.13</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3358208955223878</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>237880000</v>
+      </c>
+      <c r="K10">
+        <v>2014</v>
+      </c>
+      <c r="L10">
+        <v>20587603.440000001</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.27088951894736846</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3">
+        <v>85000000</v>
+      </c>
+      <c r="C11">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999992</v>
+      </c>
+      <c r="F11">
+        <v>1.32</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4175824175824174</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>112200000</v>
+      </c>
+      <c r="K11">
+        <v>2014</v>
+      </c>
+      <c r="L11">
+        <v>14563178.960000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.1713315171764706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>938000000</v>
+      </c>
+      <c r="C12">
+        <v>0.1583</v>
+      </c>
+      <c r="D12">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.26405559065066325</v>
+      </c>
+      <c r="F12">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57424892703862662</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>172029200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>160203415.28999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.17079255361407247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="C13">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.22362869198312235</v>
+      </c>
+      <c r="F13">
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3173913043478262</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2424000000</v>
+      </c>
+      <c r="K13">
+        <v>2013</v>
+      </c>
+      <c r="L13">
+        <v>13271311553.440001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.13271311553440002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="C14">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.41025641025641024</v>
+      </c>
+      <c r="F14">
+        <v>0.37</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.7874396135265701</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>370000000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14">
+        <v>2013</v>
+      </c>
+      <c r="L14">
+        <v>85473859.879999995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>8.5473859879999989E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="C15">
+        <v>51.2</v>
+      </c>
+      <c r="D15">
+        <v>43.8</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.14453125000000011</v>
+      </c>
+      <c r="F15">
+        <v>62.1</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.41780821917808231</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>186300000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>2013</v>
+      </c>
+      <c r="L15">
+        <v>230317.23</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>7.6772409999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3">
+        <v>28000000</v>
+      </c>
+      <c r="C16">
+        <v>2.69</v>
+      </c>
+      <c r="D16">
+        <v>1.6</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.40520446096654272</v>
+      </c>
+      <c r="F16">
+        <v>2.75</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71874999999999989</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>77000000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>2013</v>
+      </c>
+      <c r="L16">
+        <v>2112253.37</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>7.5437620357142868E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3700000000</v>
+      </c>
+      <c r="C17">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.4279</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.32358520392032886</v>
+      </c>
+      <c r="F17">
+        <v>2.23</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2114980135545688</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>8251000000</v>
+      </c>
+      <c r="K17">
+        <v>2014</v>
+      </c>
+      <c r="L17">
+        <v>255106669.50999999</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>6.8947748516216212E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="C18">
+        <v>0.64</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+      <c r="F18">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.27</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>908000000</v>
+      </c>
+      <c r="K18">
+        <v>2013</v>
+      </c>
+      <c r="L18">
+        <v>55787031.579999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>5.578703158E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="C19">
+        <v>57.09</v>
+      </c>
+      <c r="D19">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.30530740935365225</v>
+      </c>
+      <c r="F19">
+        <v>89.91</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2670196671709533</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>1888110000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19">
+        <v>2016</v>
+      </c>
+      <c r="L19">
+        <v>1132149.23</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>5.3911868095238097E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="C20">
+        <v>15.38</v>
+      </c>
+      <c r="D20">
+        <v>10.78</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.2990897269180755</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4842300556586272</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>400000000</v>
+      </c>
+      <c r="K20">
+        <v>2012</v>
+      </c>
+      <c r="L20">
+        <v>888174.36</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3.5526974400000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B21" s="3">
         <v>9000000000</v>
       </c>
-      <c r="C10">
+      <c r="C21">
         <v>1.86</v>
       </c>
-      <c r="D10">
+      <c r="D21">
         <v>1.4724999999999999</v>
       </c>
-      <c r="E10" s="7">
-        <f>(D10-C10)/C10</f>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
         <v>-0.20833333333333343</v>
       </c>
-      <c r="F10" s="1">
-        <f>B10*D10</f>
-        <v>13252500000</v>
-      </c>
-      <c r="I10">
+      <c r="F21">
+        <v>1.5698000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>6.6078098471986535E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>14128200000</v>
+      </c>
+      <c r="K21">
         <v>2015</v>
       </c>
-      <c r="J10">
+      <c r="L21">
         <v>152984100.62</v>
       </c>
-      <c r="K10">
-        <f>J10/B10</f>
+      <c r="M21">
+        <f t="shared" si="3"/>
         <v>1.6998233402222222E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="3">
-        <v>100000000000</v>
-      </c>
-      <c r="C11">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E11" s="7">
-        <f>(D11-C11)/C11</f>
-        <v>-0.22362869198312235</v>
-      </c>
-      <c r="F11" s="1">
-        <f>B11*D11</f>
-        <v>1840000000</v>
-      </c>
-      <c r="I11">
-        <v>2013</v>
-      </c>
-      <c r="J11">
-        <v>13271311553.440001</v>
-      </c>
-      <c r="K11">
-        <f>J11/B11</f>
-        <v>0.13271311553440002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6">
-        <v>76000000</v>
-      </c>
-      <c r="C12">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="D12">
-        <v>1.34</v>
-      </c>
-      <c r="E12" s="7">
-        <f>(D12-C12)/C12</f>
-        <v>-0.2407932011331444</v>
-      </c>
-      <c r="F12" s="1">
-        <f>B12*D12</f>
-        <v>101840000</v>
-      </c>
-      <c r="I12">
-        <v>2014</v>
-      </c>
-      <c r="J12">
-        <v>20587603.440000001</v>
-      </c>
-      <c r="K12">
-        <f>J12/B12</f>
-        <v>0.27088951894736846</v>
-      </c>
-      <c r="L12" s="7">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3">
-        <v>85000000</v>
-      </c>
-      <c r="C13">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D13">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E13" s="7">
-        <f>(D13-C13)/C13</f>
-        <v>-0.24999999999999992</v>
-      </c>
-      <c r="F13" s="1">
-        <f>B13*D13</f>
-        <v>46410000</v>
-      </c>
-      <c r="I13">
-        <v>2014</v>
-      </c>
-      <c r="J13">
-        <v>14563178.960000001</v>
-      </c>
-      <c r="K13">
-        <f>J13/B13</f>
-        <v>0.1713315171764706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3">
-        <v>938000000</v>
-      </c>
-      <c r="C14">
-        <v>0.1583</v>
-      </c>
-      <c r="D14">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="E14" s="7">
-        <f>(D14-C14)/C14</f>
-        <v>-0.26405559065066325</v>
-      </c>
-      <c r="F14" s="1">
-        <f>B14*D14</f>
-        <v>109277000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14">
-        <v>160203415.28999999</v>
-      </c>
-      <c r="K14">
-        <f>J14/B14</f>
-        <v>0.17079255361407247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6">
-        <v>25000000</v>
-      </c>
-      <c r="C15">
-        <v>15.38</v>
-      </c>
-      <c r="D15">
-        <v>10.78</v>
-      </c>
-      <c r="E15" s="7">
-        <f>(D15-C15)/C15</f>
-        <v>-0.2990897269180755</v>
-      </c>
-      <c r="F15" s="1">
-        <f>B15*D15</f>
-        <v>269500000</v>
-      </c>
-      <c r="I15">
-        <v>2012</v>
-      </c>
-      <c r="J15">
-        <v>888174.36</v>
-      </c>
-      <c r="K15">
-        <f>J15/B15</f>
-        <v>3.5526974400000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3">
-        <v>21000000</v>
-      </c>
-      <c r="C16">
-        <v>57.09</v>
-      </c>
-      <c r="D16">
-        <v>39.659999999999997</v>
-      </c>
-      <c r="E16" s="7">
-        <f>(D16-C16)/C16</f>
-        <v>-0.30530740935365225</v>
-      </c>
-      <c r="F16" s="1">
-        <f>B16*D16</f>
-        <v>832859999.99999988</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16">
-        <v>2016</v>
-      </c>
-      <c r="J16">
-        <v>1132149.23</v>
-      </c>
-      <c r="K16">
-        <f>J16/B16</f>
-        <v>5.3911868095238097E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3">
-        <v>21000000</v>
-      </c>
-      <c r="C17">
-        <v>1.19</v>
-      </c>
-      <c r="D17">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="7">
-        <f>(D17-C17)/C17</f>
-        <v>-0.32773109243697474</v>
-      </c>
-      <c r="F17" s="1">
-        <f>B17*D17</f>
-        <v>16800000</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17">
-        <v>2013</v>
-      </c>
-      <c r="J17">
-        <v>7029898.8200000003</v>
-      </c>
-      <c r="K17">
-        <f>J17/B17</f>
-        <v>0.3347570866666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3700000000</v>
-      </c>
-      <c r="C18">
-        <v>0.63260000000000005</v>
-      </c>
-      <c r="D18">
-        <v>0.4279</v>
-      </c>
-      <c r="E18" s="7">
-        <f>(D18-C18)/C18</f>
-        <v>-0.32358520392032886</v>
-      </c>
-      <c r="F18" s="1">
-        <f>B18*D18</f>
-        <v>1583230000</v>
-      </c>
-      <c r="I18">
-        <v>2014</v>
-      </c>
-      <c r="J18">
-        <v>255106669.50999999</v>
-      </c>
-      <c r="K18">
-        <f>J18/B18</f>
-        <v>6.8947748516216212E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="C19">
-        <v>1.27</v>
-      </c>
-      <c r="D19">
-        <v>1.03</v>
-      </c>
-      <c r="E19" s="7">
-        <f>(D19-C19)/C19</f>
-        <v>-0.1889763779527559</v>
-      </c>
-      <c r="F19" s="1">
-        <f>B19*D19</f>
-        <v>20600000</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19">
-        <v>2014</v>
-      </c>
-      <c r="J19">
-        <v>10714626.27</v>
-      </c>
-      <c r="K19">
-        <f>J19/B19</f>
-        <v>0.53573131350000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1.82</v>
-      </c>
-      <c r="D20">
-        <v>1.22</v>
-      </c>
-      <c r="E20" s="7">
-        <f>(D20-C20)/C20</f>
-        <v>-0.32967032967032972</v>
-      </c>
-      <c r="F20" s="1">
-        <f>B20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20">
-        <v>2013</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>100000000000</v>
-      </c>
-      <c r="C21">
-        <v>2.3330000000000002</v>
-      </c>
-      <c r="D21">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="E21" s="7">
-        <f>(D21-C21)/C21</f>
-        <v>-0.33433347621088733</v>
-      </c>
-      <c r="F21" s="1">
-        <f>B21*D21</f>
-        <v>155300000000</v>
-      </c>
-      <c r="I21">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3">
+        <v>84000000</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <v>157</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.12777777777777777</v>
+      </c>
+      <c r="F22">
+        <v>215</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36942675159235666</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>18060000000</v>
+      </c>
+      <c r="K22">
         <v>2011</v>
       </c>
-      <c r="J21">
-        <v>70138808.329999998</v>
-      </c>
-      <c r="K21">
-        <f>J21/B21</f>
-        <v>7.0138808329999998E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>13500000000</v>
-      </c>
-      <c r="C22">
-        <v>2.019E-2</v>
-      </c>
-      <c r="D22">
-        <v>1.3339999999999999E-2</v>
-      </c>
-      <c r="E22" s="7">
-        <f>(D22-C22)/C22</f>
-        <v>-0.33927686973749382</v>
-      </c>
-      <c r="F22" s="1">
-        <f>B22*D22</f>
-        <v>180090000</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22">
-        <v>2013</v>
-      </c>
-      <c r="J22">
-        <v>7199234504.9099998</v>
-      </c>
-      <c r="K22">
-        <f>J22/B22</f>
-        <v>0.53327662999333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>465487.32</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>5.5415157142857142E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>1000000000</v>
       </c>
       <c r="C23">
-        <v>0.64</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>5.22</v>
       </c>
       <c r="E23" s="7">
-        <f>(D23-C23)/C23</f>
-        <v>-0.375</v>
-      </c>
-      <c r="F23" s="1">
-        <f>B23*D23</f>
-        <v>400000000</v>
-      </c>
-      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>-0.38297872340425543</v>
+      </c>
+      <c r="F23">
+        <v>9.58</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.83524904214559392</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>9580000000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
         <v>2013</v>
       </c>
-      <c r="J23">
-        <v>55787031.579999998</v>
-      </c>
-      <c r="K23">
-        <f>J23/B23</f>
-        <v>5.578703158E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1000000000</v>
+      <c r="L23">
+        <v>4407153.53</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>4.4071535300000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6">
+        <v>100000000000</v>
       </c>
       <c r="C24">
-        <v>8.4600000000000009</v>
+        <v>0.38479999999999998</v>
       </c>
       <c r="D24">
-        <v>5.22</v>
+        <v>0.22070000000000001</v>
       </c>
       <c r="E24" s="7">
-        <f>(D24-C24)/C24</f>
-        <v>-0.38297872340425543</v>
-      </c>
-      <c r="F24" s="1">
-        <f>B24*D24</f>
-        <v>5220000000</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>-0.42645530145530142</v>
+      </c>
+      <c r="F24">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44041685545990034</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>31790000000</v>
+      </c>
+      <c r="K24">
+        <v>2014</v>
+      </c>
+      <c r="L24">
+        <v>355791832.49000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>3.5579183248999999E-3</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3">
+        <v>18900000</v>
+      </c>
+      <c r="C25">
+        <v>959</v>
+      </c>
+      <c r="D25">
+        <v>850</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.11366006256517205</v>
+      </c>
+      <c r="F25">
+        <v>1310</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54117647058823526</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>24759000000</v>
+      </c>
+      <c r="K25">
+        <v>2014</v>
+      </c>
+      <c r="L25">
+        <v>18266.98</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>9.665068783068783E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="C26">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="D26">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.33433347621088733</v>
+      </c>
+      <c r="F26">
+        <v>1.8896999999999999</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21680618158403092</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>188970000000</v>
+      </c>
+      <c r="K26">
+        <v>2011</v>
+      </c>
+      <c r="L26">
+        <v>70138808.329999998</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>7.0138808329999998E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="C27">
+        <v>15840.9</v>
+      </c>
+      <c r="D27">
+        <v>14820.9</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>-6.4390280855254431E-2</v>
+      </c>
+      <c r="F27">
+        <v>20348</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3729260706164943</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>427308000000</v>
+      </c>
+      <c r="K27">
+        <v>2009</v>
+      </c>
+      <c r="L27">
+        <v>9755.2199999999993</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>4.6453428571428568E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>3.32</v>
+      </c>
+      <c r="D28">
+        <v>2.68</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.19277108433734932</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.49253731343283574</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>2013</v>
       </c>
-      <c r="J24">
-        <v>4407153.53</v>
-      </c>
-      <c r="K24">
-        <f>J24/B24</f>
-        <v>4.4071535300000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3">
-        <v>42000000</v>
-      </c>
-      <c r="C25">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E25" s="7">
-        <f>(D25-C25)/C25</f>
-        <v>-0.43387470997679817</v>
-      </c>
-      <c r="F25" s="1">
-        <f>B25*D25</f>
-        <v>20496000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25">
+      <c r="L28">
+        <v>9888321.5700000003</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1.82</v>
+      </c>
+      <c r="D29">
+        <v>1.22</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.32967032967032972</v>
+      </c>
+      <c r="F29">
+        <v>1.72</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29">
         <v>2013</v>
       </c>
-      <c r="J25">
-        <v>23708838.550000001</v>
-      </c>
-      <c r="K25">
-        <f>J25/B25</f>
-        <v>0.56449615595238101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1000000000</v>
-      </c>
-      <c r="C26">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E26" s="7">
-        <f>(D26-C26)/C26</f>
-        <v>-0.41025641025641024</v>
-      </c>
-      <c r="F26" s="1">
-        <f>B26*D26</f>
-        <v>207000000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26">
-        <v>2013</v>
-      </c>
-      <c r="J26">
-        <v>85473859.879999995</v>
-      </c>
-      <c r="K26">
-        <f>J26/B26</f>
-        <v>8.5473859879999989E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="6">
-        <v>100000000000</v>
-      </c>
-      <c r="C27">
-        <v>0.38479999999999998</v>
-      </c>
-      <c r="D27">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="E27" s="7">
-        <f>(D27-C27)/C27</f>
-        <v>-0.42645530145530142</v>
-      </c>
-      <c r="F27" s="1">
-        <f>B27*D27</f>
-        <v>22070000000</v>
-      </c>
-      <c r="I27">
-        <v>2014</v>
-      </c>
-      <c r="J27">
-        <v>355791832.49000001</v>
-      </c>
-      <c r="K27">
-        <f>J27/B27</f>
-        <v>3.5579183248999999E-3</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4">
-        <v>400000000</v>
-      </c>
-      <c r="C28">
-        <v>0.215</v>
-      </c>
-      <c r="D28">
-        <v>0.105</v>
-      </c>
-      <c r="E28" s="7">
-        <f>(D28-C28)/C28</f>
-        <v>-0.51162790697674421</v>
-      </c>
-      <c r="F28" s="1">
-        <f>B28*D28</f>
-        <v>42000000</v>
-      </c>
-      <c r="G28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28">
-        <v>2014</v>
-      </c>
-      <c r="J28">
-        <v>294714491.72000003</v>
-      </c>
-      <c r="K28">
-        <f>J28/B28</f>
-        <v>0.73678622930000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3">
-        <v>150000000</v>
-      </c>
-      <c r="C29">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="D29">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E29" s="7">
-        <f>(D29-C29)/C29</f>
-        <v>0.43398268398268414</v>
-      </c>
-      <c r="F29" s="1">
-        <f>B29*D29</f>
-        <v>39750000</v>
-      </c>
-      <c r="G29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29">
-        <v>2016</v>
-      </c>
-      <c r="J29">
-        <v>132832801.14</v>
-      </c>
-      <c r="K29">
-        <f>J29/B29</f>
-        <v>0.88555200759999997</v>
+      <c r="M29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N29">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="比特时代"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:L29">
-      <sortCondition ref="K1:K29"/>
+  <autoFilter ref="A1:P29">
+    <sortState ref="A2:O29">
+      <sortCondition descending="1" ref="M1:M29"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
